--- a/PHP Cheatsheet.xlsx
+++ b/PHP Cheatsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conor\My Drive\Cheatsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0F3323-A11C-437B-9E1F-82681526468D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB02998-46A8-4794-A790-E039FF0803D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{D1384DBD-E3D7-4A64-AC90-8452D6C19E6B}"/>
+    <workbookView xWindow="14220" yWindow="0" windowWidth="14685" windowHeight="15585" activeTab="1" xr2:uid="{D1384DBD-E3D7-4A64-AC90-8452D6C19E6B}"/>
   </bookViews>
   <sheets>
     <sheet name="PHP Absolute Basics" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,40 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="2">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="2">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+    <bk>
+      <rc t="1" v="1"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="178">
   <si>
     <t>Command</t>
   </si>
@@ -1616,6 +1648,226 @@
 It attempts to fetch all the results from the executed query using $query-&gt;fetchall().
 5. Displaying Results: foreach ($results as $row) { ... }:
 It iterates over the fetched results using a foreach loop and prints out the value of the pid column for each row.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;form action="./page2.php" method="GET"&gt;
+    &lt;button type="submit"&gt;Next Page&lt;/button&gt;
+    &lt;input </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>type="hidden"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> id="name" name="name" value="Amanda Panda" /&gt;
+    &lt;input </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>type="hidden"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> id="age" name="age" value="26" /&gt;
+&lt;/form&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Hidden type</t>
+  </si>
+  <si>
+    <t>The hidden type is a way to pass values to a page without user input. HTML. HTML hidden type for input means it cannot be seen by the user, but value is sent on submit</t>
+  </si>
+  <si>
+    <t>PHP Sessions</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Session variables are an easy way to store data on the server side
+Variables can be stored across multiple pages. The server generates a unique ID and sends it in a cookie. Only the ID gets sent back and forth
+Sessions are started and accessed with: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>session_start(); w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">hich must be before any HTML in your page (place it at the top)
+Session variables are in the associative array: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$_SESSION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Session variables are stored only whilst a session is open. When the session is closed by the user closing the browser or calling </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>session_destroy()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, the variables disappear. For more permanent storage, use a database</t>
+    </r>
+  </si>
+  <si>
+    <t>PHP Cookies</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cookies store information on the client side (aka it's data that's stored by the web browser </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>locally</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">). Features of cookies: small, often encrypted files that are held in browser directories, can store data across sessions, created by the server, sent back to the server with every HTTP request from the client, and possibly modified by the server on response to the request.
+Cookies can be created using the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>setcookie(name, value, expiry_time)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (three is the smallest number of parameters setcookie can take) command in php.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"># Cookie php goes above all other code in php code (right at the top as its own thing
+&lt;?php
+// Add to the basket if item=value is in the query string
+// Otherwise reset/create the cookie
+$cookie_name = "basket";
+$cookie_value = "contents: ";
+if(isset($_GET['item'])) {
+    $cookie_value = $_COOKIE[$cookie_name]." ".$_GET['item'];
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>setcookie($cookie_name, $cookie_value, time()+(86400*30)); // 30 days</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+echo $cookie_value."&lt;p&gt;";
+?&gt;</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1825,6 +2077,75 @@
 </styleSheet>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+</richValueRels>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{76874623-44A6-4B13-931F-D3F8277DE531}" name="Table1" displayName="Table1" ref="A1:D34" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="A1:D34" xr:uid="{76874623-44A6-4B13-931F-D3F8277DE531}"/>
@@ -1839,8 +2160,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E3D13EAF-EE3F-4E8B-8BBD-DECEF79A8C69}" name="Table2" displayName="Table2" ref="A1:D13" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
-  <autoFilter ref="A1:D13" xr:uid="{E3D13EAF-EE3F-4E8B-8BBD-DECEF79A8C69}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E3D13EAF-EE3F-4E8B-8BBD-DECEF79A8C69}" name="Table2" displayName="Table2" ref="A1:D16" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6" tableBorderDxfId="4">
+  <autoFilter ref="A1:D16" xr:uid="{E3D13EAF-EE3F-4E8B-8BBD-DECEF79A8C69}"/>
   <tableColumns count="4">
     <tableColumn id="2" xr3:uid="{943541E5-D6CB-45E0-9488-D247FE3C6B5E}" name="What it does" dataDxfId="3"/>
     <tableColumn id="1" xr3:uid="{842EDC63-A5C5-4BCF-A193-2BEAD19DB328}" name="Command" dataDxfId="2"/>
@@ -2634,16 +2955,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01DD6DA-DB63-4EB1-B207-0240344104B9}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24" style="1" customWidth="1"/>
-    <col min="2" max="2" width="72" style="1" customWidth="1"/>
+    <col min="2" max="2" width="74.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="71.5703125" customWidth="1"/>
     <col min="4" max="4" width="55.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" style="1" customWidth="1"/>
@@ -2819,6 +3140,42 @@
       </c>
       <c r="C13" s="1"/>
     </row>
+    <row r="14" spans="1:4" ht="75">
+      <c r="A14" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="153.75" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="1" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="210">
+      <c r="A16" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="1" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/PHP Cheatsheet.xlsx
+++ b/PHP Cheatsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conor\My Drive\Cheatsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB02998-46A8-4794-A790-E039FF0803D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AB1071-A529-498C-B253-3792C41CAF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14220" yWindow="0" windowWidth="14685" windowHeight="15585" activeTab="1" xr2:uid="{D1384DBD-E3D7-4A64-AC90-8452D6C19E6B}"/>
+    <workbookView xWindow="28680" yWindow="5895" windowWidth="29040" windowHeight="15720" xr2:uid="{D1384DBD-E3D7-4A64-AC90-8452D6C19E6B}"/>
   </bookViews>
   <sheets>
     <sheet name="PHP Absolute Basics" sheetId="1" r:id="rId1"/>
@@ -2471,8 +2471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0824AD7-3515-4203-9C5C-7EE76679B35B}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2957,8 +2957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01DD6DA-DB63-4EB1-B207-0240344104B9}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/PHP Cheatsheet.xlsx
+++ b/PHP Cheatsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conor\My Drive\Cheatsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AB1071-A529-498C-B253-3792C41CAF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2ABDD8D-E62E-44B0-B6B6-7E9FFC898B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="5895" windowWidth="29040" windowHeight="15720" xr2:uid="{D1384DBD-E3D7-4A64-AC90-8452D6C19E6B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D1384DBD-E3D7-4A64-AC90-8452D6C19E6B}"/>
   </bookViews>
   <sheets>
     <sheet name="PHP Absolute Basics" sheetId="1" r:id="rId1"/>
@@ -505,9 +505,6 @@
     <t>Access elements using their index.</t>
   </si>
   <si>
-    <t>Foreach loop (simple array)</t>
-  </si>
-  <si>
     <t>foreach($foods as $food){ ... }</t>
   </si>
   <si>
@@ -1868,6 +1865,9 @@
 echo $cookie_value."&lt;p&gt;";
 ?&gt;</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -2471,8 +2471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0824AD7-3515-4203-9C5C-7EE76679B35B}">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2546,7 +2546,7 @@
         <v>30</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>31</v>
@@ -2560,7 +2560,7 @@
         <v>32</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>33</v>
@@ -2574,7 +2574,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>36</v>
@@ -2588,7 +2588,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>39</v>
@@ -2602,7 +2602,7 @@
         <v>41</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>42</v>
@@ -2644,7 +2644,7 @@
         <v>52</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>53</v>
@@ -2655,58 +2655,58 @@
     </row>
     <row r="13" spans="1:4" ht="45">
       <c r="A13" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="45">
       <c r="A14" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="45">
       <c r="A15" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="45">
       <c r="A16" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>106</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30">
@@ -2754,7 +2754,7 @@
         <v>61</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>62</v>
@@ -2768,7 +2768,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>64</v>
@@ -2779,13 +2779,13 @@
     </row>
     <row r="22" spans="1:4" ht="30">
       <c r="A22" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>29</v>
@@ -2793,30 +2793,30 @@
     </row>
     <row r="23" spans="1:4" ht="60">
       <c r="A23" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="105">
       <c r="A24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>73</v>
-      </c>
       <c r="D24" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="75">
@@ -2830,119 +2830,119 @@
     </row>
     <row r="26" spans="1:4" ht="63.75">
       <c r="A26" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" s="6" t="s">
+      <c r="D26" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="45">
       <c r="A27" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="30">
       <c r="A28" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="C28" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="45">
       <c r="A29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="8" t="s">
         <v>113</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="45">
       <c r="A30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="C30" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="58.5">
       <c r="A31" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="D31" s="8" t="s">
         <v>128</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30">
       <c r="A32" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="C32" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="8" t="s">
         <v>123</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="30">
       <c r="A33" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="C33" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="45">
       <c r="A34" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2957,8 +2957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01DD6DA-DB63-4EB1-B207-0240344104B9}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2987,190 +2987,190 @@
     </row>
     <row r="2" spans="1:4" ht="240">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="375">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="105">
       <c r="A4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="120">
       <c r="A7" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30">
       <c r="A8" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>150</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="45">
       <c r="A9" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="105">
       <c r="A10" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="90">
       <c r="A11" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="315">
       <c r="A12" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="180">
       <c r="A13" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:4" ht="75">
       <c r="A14" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="153.75" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B15" s="1" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="210">
       <c r="A16" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="D16" s="1" t="e" vm="2">
         <v>#VALUE!</v>
